--- a/Documentation/mes steg_Mounir.xlsx
+++ b/Documentation/mes steg_Mounir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
